--- a/data/trans_bre/CoTrAQ_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R2-Edad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.70396159515012</v>
+        <v>-19.75565814498348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.7772163133218</v>
+        <v>-19.70459810277021</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.7380604803648447</v>
+        <v>-0.7238477674380637</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.431502316108437</v>
+        <v>-0.4815311190180525</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.74713850879835</v>
+        <v>4.149754282861902</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.42566622945939</v>
+        <v>8.843557265704789</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.4551180750815137</v>
+        <v>0.3753164420603117</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4879591724530681</v>
+        <v>0.3547150204417144</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.642276637107704</v>
+        <v>-3.502021326099759</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.989957207968517</v>
+        <v>-5.186045254254246</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1922758071531708</v>
+        <v>-0.1914498251090843</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1567542903057395</v>
+        <v>-0.1639985321678535</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.850113564035448</v>
+        <v>8.772402276196772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.108462702537121</v>
+        <v>10.12216949667969</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6305081335204903</v>
+        <v>0.6292130129608542</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3718466562411698</v>
+        <v>0.4126833748912244</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.144884232110988</v>
+        <v>-2.769053025068949</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.340365403031428</v>
+        <v>-1.317694685487531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2149462743427519</v>
+        <v>-0.1839383982724437</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.05059839809255089</v>
+        <v>-0.05697709855295366</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.347030300110195</v>
+        <v>9.40716576070554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.224995136188</v>
+        <v>11.56945680788085</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.8343756553319555</v>
+        <v>0.822955146003186</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6175926319667762</v>
+        <v>0.6509734354634071</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.546650222077888</v>
+        <v>2.996187155674296</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1705448674898452</v>
+        <v>0.01393217538997707</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1706291634881612</v>
+        <v>0.2157029514348995</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01126317926685664</v>
+        <v>-0.006207186318768039</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.73164863869818</v>
+        <v>16.50148617000998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.77179839694901</v>
+        <v>15.64615559325285</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.133251467287065</v>
+        <v>2.202083762375309</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7943630291625666</v>
+        <v>0.7773736829101793</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.354601924606919</v>
+        <v>-5.67956952358338</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.415672599756645</v>
+        <v>-5.45043105490852</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.5320927716482876</v>
+        <v>-0.4648727241041875</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1740382821318341</v>
+        <v>-0.1958527953190725</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.97888968090975</v>
+        <v>14.51322097797222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.02416639194981</v>
+        <v>18.68600256350204</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.912993725014777</v>
+        <v>2.060813039402419</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.955246018154012</v>
+        <v>1.025134772632639</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7649707362099373</v>
+        <v>0.4998884853830282</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8650010601221878</v>
+        <v>1.009629421620248</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.05891723059371563</v>
+        <v>0.03054166062031727</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03220154950605392</v>
+        <v>0.03408692534787582</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.863381059121392</v>
+        <v>6.885989080337532</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.235261710151724</v>
+        <v>8.13399078489109</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5751701632629073</v>
+        <v>0.5620560237030897</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.368546666515035</v>
+        <v>0.3599870327205021</v>
       </c>
     </row>
     <row r="22">
